--- a/Transformer/result/wlp_transformer/daqingyoutian_result_BHC.xlsx
+++ b/Transformer/result/wlp_transformer/daqingyoutian_result_BHC.xlsx
@@ -455,7 +455,7 @@
         <v>1104.6</v>
       </c>
       <c r="B2" t="n">
-        <v>326.1484069824219</v>
+        <v>313.3014526367188</v>
       </c>
       <c r="C2" t="n">
         <v>318.697</v>
@@ -466,7 +466,7 @@
         <v>1104.65</v>
       </c>
       <c r="B3" t="n">
-        <v>326.526123046875</v>
+        <v>315.5771484375</v>
       </c>
       <c r="C3" t="n">
         <v>320.833</v>
@@ -477,7 +477,7 @@
         <v>1104.7</v>
       </c>
       <c r="B4" t="n">
-        <v>328.5011901855469</v>
+        <v>315.887451171875</v>
       </c>
       <c r="C4" t="n">
         <v>326.923</v>
@@ -488,7 +488,7 @@
         <v>1104.75</v>
       </c>
       <c r="B5" t="n">
-        <v>332.2708740234375</v>
+        <v>317.689208984375</v>
       </c>
       <c r="C5" t="n">
         <v>330.021</v>
@@ -499,7 +499,7 @@
         <v>1104.8</v>
       </c>
       <c r="B6" t="n">
-        <v>334.6997985839844</v>
+        <v>316.9236450195312</v>
       </c>
       <c r="C6" t="n">
         <v>333.333</v>
@@ -510,7 +510,7 @@
         <v>1104.85</v>
       </c>
       <c r="B7" t="n">
-        <v>339.4437255859375</v>
+        <v>319.3554077148438</v>
       </c>
       <c r="C7" t="n">
         <v>333.868</v>
@@ -521,7 +521,7 @@
         <v>1104.9</v>
       </c>
       <c r="B8" t="n">
-        <v>341.2425537109375</v>
+        <v>322.5196228027344</v>
       </c>
       <c r="C8" t="n">
         <v>334.776</v>
@@ -532,7 +532,7 @@
         <v>1104.95</v>
       </c>
       <c r="B9" t="n">
-        <v>343.1214294433594</v>
+        <v>326.9071655273438</v>
       </c>
       <c r="C9" t="n">
         <v>335.523</v>
@@ -543,7 +543,7 @@
         <v>1105</v>
       </c>
       <c r="B10" t="n">
-        <v>344.5127563476562</v>
+        <v>331.8568725585938</v>
       </c>
       <c r="C10" t="n">
         <v>337.66</v>
@@ -554,7 +554,7 @@
         <v>1105.05</v>
       </c>
       <c r="B11" t="n">
-        <v>344.0823669433594</v>
+        <v>335.3963012695312</v>
       </c>
       <c r="C11" t="n">
         <v>339.316</v>
@@ -565,7 +565,7 @@
         <v>1105.1</v>
       </c>
       <c r="B12" t="n">
-        <v>343.9166870117188</v>
+        <v>337.9913024902344</v>
       </c>
       <c r="C12" t="n">
         <v>340.171</v>
@@ -576,7 +576,7 @@
         <v>1105.15</v>
       </c>
       <c r="B13" t="n">
-        <v>343.0960083007812</v>
+        <v>341.8678588867188</v>
       </c>
       <c r="C13" t="n">
         <v>341.132</v>
@@ -587,7 +587,7 @@
         <v>1105.2</v>
       </c>
       <c r="B14" t="n">
-        <v>345.3848571777344</v>
+        <v>343.6477355957031</v>
       </c>
       <c r="C14" t="n">
         <v>343.59</v>
@@ -598,7 +598,7 @@
         <v>1105.25</v>
       </c>
       <c r="B15" t="n">
-        <v>347.8482666015625</v>
+        <v>346.0445861816406</v>
       </c>
       <c r="C15" t="n">
         <v>345.139</v>
@@ -609,7 +609,7 @@
         <v>1105.3</v>
       </c>
       <c r="B16" t="n">
-        <v>350.1838073730469</v>
+        <v>349.778076171875</v>
       </c>
       <c r="C16" t="n">
         <v>348.611</v>
@@ -620,7 +620,7 @@
         <v>1105.35</v>
       </c>
       <c r="B17" t="n">
-        <v>352.3175048828125</v>
+        <v>350.1825561523438</v>
       </c>
       <c r="C17" t="n">
         <v>350.427</v>
@@ -631,7 +631,7 @@
         <v>1105.4</v>
       </c>
       <c r="B18" t="n">
-        <v>353.9819641113281</v>
+        <v>352.7440795898438</v>
       </c>
       <c r="C18" t="n">
         <v>352.618</v>
@@ -642,7 +642,7 @@
         <v>1105.45</v>
       </c>
       <c r="B19" t="n">
-        <v>355.8842163085938</v>
+        <v>354.7774353027344</v>
       </c>
       <c r="C19" t="n">
         <v>353.098</v>
@@ -653,7 +653,7 @@
         <v>1105.5</v>
       </c>
       <c r="B20" t="n">
-        <v>357.5511169433594</v>
+        <v>354.9810180664062</v>
       </c>
       <c r="C20" t="n">
         <v>354.167</v>
@@ -664,7 +664,7 @@
         <v>1105.55</v>
       </c>
       <c r="B21" t="n">
-        <v>359.228515625</v>
+        <v>358.101318359375</v>
       </c>
       <c r="C21" t="n">
         <v>355.021</v>
@@ -675,7 +675,7 @@
         <v>1105.6</v>
       </c>
       <c r="B22" t="n">
-        <v>359.9398803710938</v>
+        <v>358.321533203125</v>
       </c>
       <c r="C22" t="n">
         <v>358.013</v>
@@ -686,7 +686,7 @@
         <v>1105.65</v>
       </c>
       <c r="B23" t="n">
-        <v>361.7267456054688</v>
+        <v>358.8163757324219</v>
       </c>
       <c r="C23" t="n">
         <v>359.882</v>
@@ -697,7 +697,7 @@
         <v>1105.7</v>
       </c>
       <c r="B24" t="n">
-        <v>359.845458984375</v>
+        <v>356.1964721679688</v>
       </c>
       <c r="C24" t="n">
         <v>361.165</v>
@@ -708,7 +708,7 @@
         <v>1105.75</v>
       </c>
       <c r="B25" t="n">
-        <v>359.6354370117188</v>
+        <v>357.3543395996094</v>
       </c>
       <c r="C25" t="n">
         <v>360.363</v>
@@ -719,7 +719,7 @@
         <v>1105.8</v>
       </c>
       <c r="B26" t="n">
-        <v>357.6966857910156</v>
+        <v>354.1990966796875</v>
       </c>
       <c r="C26" t="n">
         <v>359.882</v>
@@ -730,7 +730,7 @@
         <v>1105.85</v>
       </c>
       <c r="B27" t="n">
-        <v>355.8780517578125</v>
+        <v>352.4320068359375</v>
       </c>
       <c r="C27" t="n">
         <v>359.348</v>
@@ -741,7 +741,7 @@
         <v>1105.9</v>
       </c>
       <c r="B28" t="n">
-        <v>355.2119445800781</v>
+        <v>352.8684692382812</v>
       </c>
       <c r="C28" t="n">
         <v>358.173</v>
@@ -752,7 +752,7 @@
         <v>1105.95</v>
       </c>
       <c r="B29" t="n">
-        <v>352.1088562011719</v>
+        <v>351.6975402832031</v>
       </c>
       <c r="C29" t="n">
         <v>356.624</v>
@@ -763,7 +763,7 @@
         <v>1106</v>
       </c>
       <c r="B30" t="n">
-        <v>348.32666015625</v>
+        <v>351.3421630859375</v>
       </c>
       <c r="C30" t="n">
         <v>352.35</v>
@@ -774,7 +774,7 @@
         <v>1106.05</v>
       </c>
       <c r="B31" t="n">
-        <v>346.52685546875</v>
+        <v>350.0651245117188</v>
       </c>
       <c r="C31" t="n">
         <v>349.893</v>
@@ -785,7 +785,7 @@
         <v>1106.1</v>
       </c>
       <c r="B32" t="n">
-        <v>343.28466796875</v>
+        <v>347.5340881347656</v>
       </c>
       <c r="C32" t="n">
         <v>345.139</v>
@@ -796,7 +796,7 @@
         <v>1106.15</v>
       </c>
       <c r="B33" t="n">
-        <v>339.6216430664062</v>
+        <v>343.5838012695312</v>
       </c>
       <c r="C33" t="n">
         <v>342.949</v>
@@ -807,7 +807,7 @@
         <v>1106.2</v>
       </c>
       <c r="B34" t="n">
-        <v>338.3302917480469</v>
+        <v>341.4886474609375</v>
       </c>
       <c r="C34" t="n">
         <v>338.034</v>
@@ -818,7 +818,7 @@
         <v>1106.25</v>
       </c>
       <c r="B35" t="n">
-        <v>336.2785949707031</v>
+        <v>338.4208374023438</v>
       </c>
       <c r="C35" t="n">
         <v>335.47</v>
@@ -829,7 +829,7 @@
         <v>1106.3</v>
       </c>
       <c r="B36" t="n">
-        <v>333.8164672851562</v>
+        <v>337.9666137695312</v>
       </c>
       <c r="C36" t="n">
         <v>330.502</v>
@@ -840,7 +840,7 @@
         <v>1106.35</v>
       </c>
       <c r="B37" t="n">
-        <v>333.679931640625</v>
+        <v>334.055908203125</v>
       </c>
       <c r="C37" t="n">
         <v>328.312</v>
@@ -851,7 +851,7 @@
         <v>1106.4</v>
       </c>
       <c r="B38" t="n">
-        <v>331.6799621582031</v>
+        <v>332.67724609375</v>
       </c>
       <c r="C38" t="n">
         <v>324.947</v>
@@ -862,7 +862,7 @@
         <v>1106.45</v>
       </c>
       <c r="B39" t="n">
-        <v>327.9901123046875</v>
+        <v>331.1709594726562</v>
       </c>
       <c r="C39" t="n">
         <v>323.878</v>
@@ -873,7 +873,7 @@
         <v>1106.5</v>
       </c>
       <c r="B40" t="n">
-        <v>325.863037109375</v>
+        <v>329.2481689453125</v>
       </c>
       <c r="C40" t="n">
         <v>321.955</v>
@@ -884,7 +884,7 @@
         <v>1106.55</v>
       </c>
       <c r="B41" t="n">
-        <v>323.9434814453125</v>
+        <v>325.05322265625</v>
       </c>
       <c r="C41" t="n">
         <v>320.94</v>
@@ -895,7 +895,7 @@
         <v>1106.6</v>
       </c>
       <c r="B42" t="n">
-        <v>321.8453063964844</v>
+        <v>321.82373046875</v>
       </c>
       <c r="C42" t="n">
         <v>318.964</v>
@@ -906,7 +906,7 @@
         <v>1106.65</v>
       </c>
       <c r="B43" t="n">
-        <v>319.1917724609375</v>
+        <v>321.471923828125</v>
       </c>
       <c r="C43" t="n">
         <v>315.652</v>
@@ -917,7 +917,7 @@
         <v>1106.7</v>
       </c>
       <c r="B44" t="n">
-        <v>318.2130126953125</v>
+        <v>321.2451171875</v>
       </c>
       <c r="C44" t="n">
         <v>313.675</v>
@@ -928,7 +928,7 @@
         <v>1106.75</v>
       </c>
       <c r="B45" t="n">
-        <v>318.1971435546875</v>
+        <v>319.8996887207031</v>
       </c>
       <c r="C45" t="n">
         <v>310.791</v>
@@ -939,7 +939,7 @@
         <v>1106.8</v>
       </c>
       <c r="B46" t="n">
-        <v>317.1112670898438</v>
+        <v>318.46240234375</v>
       </c>
       <c r="C46" t="n">
         <v>311.912</v>
@@ -950,7 +950,7 @@
         <v>1106.85</v>
       </c>
       <c r="B47" t="n">
-        <v>317.2019348144531</v>
+        <v>318.4649047851562</v>
       </c>
       <c r="C47" t="n">
         <v>313.782</v>
@@ -961,7 +961,7 @@
         <v>1106.9</v>
       </c>
       <c r="B48" t="n">
-        <v>317.3255310058594</v>
+        <v>320.4583129882812</v>
       </c>
       <c r="C48" t="n">
         <v>318.964</v>
@@ -972,7 +972,7 @@
         <v>1106.95</v>
       </c>
       <c r="B49" t="n">
-        <v>316.1266174316406</v>
+        <v>317.6138305664062</v>
       </c>
       <c r="C49" t="n">
         <v>320.833</v>
@@ -983,7 +983,7 @@
         <v>1107</v>
       </c>
       <c r="B50" t="n">
-        <v>315.89794921875</v>
+        <v>319.5123291015625</v>
       </c>
       <c r="C50" t="n">
         <v>322.382</v>
@@ -994,7 +994,7 @@
         <v>1107.05</v>
       </c>
       <c r="B51" t="n">
-        <v>316.6025085449219</v>
+        <v>317.4761962890625</v>
       </c>
       <c r="C51" t="n">
         <v>322.703</v>
@@ -1005,7 +1005,7 @@
         <v>1107.1</v>
       </c>
       <c r="B52" t="n">
-        <v>317.6573181152344</v>
+        <v>317.6208801269531</v>
       </c>
       <c r="C52" t="n">
         <v>323.023</v>
@@ -1016,7 +1016,7 @@
         <v>1107.15</v>
       </c>
       <c r="B53" t="n">
-        <v>320.2154541015625</v>
+        <v>318.6979064941406</v>
       </c>
       <c r="C53" t="n">
         <v>323.771</v>
@@ -1027,7 +1027,7 @@
         <v>1107.2</v>
       </c>
       <c r="B54" t="n">
-        <v>324.4584350585938</v>
+        <v>320.6256408691406</v>
       </c>
       <c r="C54" t="n">
         <v>324.733</v>
@@ -1038,7 +1038,7 @@
         <v>1107.25</v>
       </c>
       <c r="B55" t="n">
-        <v>327.5268249511719</v>
+        <v>322.8034057617188</v>
       </c>
       <c r="C55" t="n">
         <v>325.16</v>
@@ -1049,7 +1049,7 @@
         <v>1107.3</v>
       </c>
       <c r="B56" t="n">
-        <v>329.789306640625</v>
+        <v>325.3154602050781</v>
       </c>
       <c r="C56" t="n">
         <v>327.778</v>
@@ -1060,7 +1060,7 @@
         <v>1107.35</v>
       </c>
       <c r="B57" t="n">
-        <v>331.0560913085938</v>
+        <v>325.4756469726562</v>
       </c>
       <c r="C57" t="n">
         <v>330.502</v>
@@ -1071,7 +1071,7 @@
         <v>1107.4</v>
       </c>
       <c r="B58" t="n">
-        <v>334.5097351074219</v>
+        <v>325.8353271484375</v>
       </c>
       <c r="C58" t="n">
         <v>331.838</v>
@@ -1082,7 +1082,7 @@
         <v>1107.45</v>
       </c>
       <c r="B59" t="n">
-        <v>336.77734375</v>
+        <v>328.1694946289062</v>
       </c>
       <c r="C59" t="n">
         <v>335.31</v>
@@ -1093,7 +1093,7 @@
         <v>1107.5</v>
       </c>
       <c r="B60" t="n">
-        <v>337.1592712402344</v>
+        <v>329.773193359375</v>
       </c>
       <c r="C60" t="n">
         <v>339.69</v>
@@ -1104,7 +1104,7 @@
         <v>1107.55</v>
       </c>
       <c r="B61" t="n">
-        <v>339.3617553710938</v>
+        <v>330.8450012207031</v>
       </c>
       <c r="C61" t="n">
         <v>339.904</v>
@@ -1115,7 +1115,7 @@
         <v>1107.6</v>
       </c>
       <c r="B62" t="n">
-        <v>341.7723388671875</v>
+        <v>334.0535278320312</v>
       </c>
       <c r="C62" t="n">
         <v>338.355</v>
@@ -1126,7 +1126,7 @@
         <v>1107.65</v>
       </c>
       <c r="B63" t="n">
-        <v>341.8772583007812</v>
+        <v>334.7359619140625</v>
       </c>
       <c r="C63" t="n">
         <v>337.18</v>
@@ -1137,7 +1137,7 @@
         <v>1107.7</v>
       </c>
       <c r="B64" t="n">
-        <v>343.1795959472656</v>
+        <v>337.7501525878906</v>
       </c>
       <c r="C64" t="n">
         <v>336.218</v>
@@ -1148,7 +1148,7 @@
         <v>1107.75</v>
       </c>
       <c r="B65" t="n">
-        <v>344.3534240722656</v>
+        <v>336.8847045898438</v>
       </c>
       <c r="C65" t="n">
         <v>336.378</v>
@@ -1159,7 +1159,7 @@
         <v>1107.8</v>
       </c>
       <c r="B66" t="n">
-        <v>342.8917541503906</v>
+        <v>335.7294616699219</v>
       </c>
       <c r="C66" t="n">
         <v>337.019</v>
@@ -1170,7 +1170,7 @@
         <v>1107.85</v>
       </c>
       <c r="B67" t="n">
-        <v>340.9207153320312</v>
+        <v>336.0356750488281</v>
       </c>
       <c r="C67" t="n">
         <v>337.34</v>
@@ -1181,7 +1181,7 @@
         <v>1107.9</v>
       </c>
       <c r="B68" t="n">
-        <v>336.7246398925781</v>
+        <v>334.5605773925781</v>
       </c>
       <c r="C68" t="n">
         <v>337.18</v>
@@ -1192,7 +1192,7 @@
         <v>1107.95</v>
       </c>
       <c r="B69" t="n">
-        <v>333.05322265625</v>
+        <v>333.5911254882812</v>
       </c>
       <c r="C69" t="n">
         <v>334.882</v>
@@ -1203,7 +1203,7 @@
         <v>1108</v>
       </c>
       <c r="B70" t="n">
-        <v>329.8397827148438</v>
+        <v>332.4243469238281</v>
       </c>
       <c r="C70" t="n">
         <v>329.915</v>
@@ -1214,7 +1214,7 @@
         <v>1108.05</v>
       </c>
       <c r="B71" t="n">
-        <v>327.1230773925781</v>
+        <v>332.7327270507812</v>
       </c>
       <c r="C71" t="n">
         <v>328.365</v>
@@ -1225,7 +1225,7 @@
         <v>1108.1</v>
       </c>
       <c r="B72" t="n">
-        <v>325.8329162597656</v>
+        <v>332.5266723632812</v>
       </c>
       <c r="C72" t="n">
         <v>325.748</v>
@@ -1236,7 +1236,7 @@
         <v>1108.15</v>
       </c>
       <c r="B73" t="n">
-        <v>325.7252807617188</v>
+        <v>331.7696533203125</v>
       </c>
       <c r="C73" t="n">
         <v>324.145</v>
@@ -1247,7 +1247,7 @@
         <v>1108.2</v>
       </c>
       <c r="B74" t="n">
-        <v>325.1694946289062</v>
+        <v>331.7921447753906</v>
       </c>
       <c r="C74" t="n">
         <v>322.81</v>
@@ -1258,7 +1258,7 @@
         <v>1108.25</v>
       </c>
       <c r="B75" t="n">
-        <v>323.773193359375</v>
+        <v>329.4421997070312</v>
       </c>
       <c r="C75" t="n">
         <v>322.81</v>
@@ -1269,7 +1269,7 @@
         <v>1108.3</v>
       </c>
       <c r="B76" t="n">
-        <v>323.36767578125</v>
+        <v>330.942138671875</v>
       </c>
       <c r="C76" t="n">
         <v>323.344</v>
@@ -1280,7 +1280,7 @@
         <v>1108.35</v>
       </c>
       <c r="B77" t="n">
-        <v>324.8516235351562</v>
+        <v>328.514404296875</v>
       </c>
       <c r="C77" t="n">
         <v>323.13</v>
@@ -1291,7 +1291,7 @@
         <v>1108.4</v>
       </c>
       <c r="B78" t="n">
-        <v>325.7167053222656</v>
+        <v>328.466064453125</v>
       </c>
       <c r="C78" t="n">
         <v>321.207</v>
@@ -1302,7 +1302,7 @@
         <v>1108.45</v>
       </c>
       <c r="B79" t="n">
-        <v>326.7171630859375</v>
+        <v>326.7428894042969</v>
       </c>
       <c r="C79" t="n">
         <v>321.047</v>
@@ -1313,7 +1313,7 @@
         <v>1108.5</v>
       </c>
       <c r="B80" t="n">
-        <v>329.2273864746094</v>
+        <v>328.6973571777344</v>
       </c>
       <c r="C80" t="n">
         <v>323.344</v>
@@ -1324,7 +1324,7 @@
         <v>1108.55</v>
       </c>
       <c r="B81" t="n">
-        <v>330.3668823242188</v>
+        <v>329.4971923828125</v>
       </c>
       <c r="C81" t="n">
         <v>325.641</v>
@@ -1335,7 +1335,7 @@
         <v>1108.6</v>
       </c>
       <c r="B82" t="n">
-        <v>332.2349243164062</v>
+        <v>329.9181518554688</v>
       </c>
       <c r="C82" t="n">
         <v>332.799</v>
@@ -1346,7 +1346,7 @@
         <v>1108.65</v>
       </c>
       <c r="B83" t="n">
-        <v>332.950439453125</v>
+        <v>330.5482788085938</v>
       </c>
       <c r="C83" t="n">
         <v>335.256</v>
@@ -1357,7 +1357,7 @@
         <v>1108.7</v>
       </c>
       <c r="B84" t="n">
-        <v>333.2076416015625</v>
+        <v>332.2440490722656</v>
       </c>
       <c r="C84" t="n">
         <v>333.654</v>
@@ -1368,7 +1368,7 @@
         <v>1108.75</v>
       </c>
       <c r="B85" t="n">
-        <v>332.7350769042969</v>
+        <v>331.0901489257812</v>
       </c>
       <c r="C85" t="n">
         <v>331.25</v>
@@ -1379,7 +1379,7 @@
         <v>1108.8</v>
       </c>
       <c r="B86" t="n">
-        <v>332.1060485839844</v>
+        <v>330.8116455078125</v>
       </c>
       <c r="C86" t="n">
         <v>330.021</v>
@@ -1390,7 +1390,7 @@
         <v>1108.85</v>
       </c>
       <c r="B87" t="n">
-        <v>331.0606384277344</v>
+        <v>329.8933410644531</v>
       </c>
       <c r="C87" t="n">
         <v>330.342</v>
@@ -1401,7 +1401,7 @@
         <v>1108.9</v>
       </c>
       <c r="B88" t="n">
-        <v>331.908447265625</v>
+        <v>331.3095703125</v>
       </c>
       <c r="C88" t="n">
         <v>330.235</v>
@@ -1412,7 +1412,7 @@
         <v>1108.95</v>
       </c>
       <c r="B89" t="n">
-        <v>331.7946472167969</v>
+        <v>331.7704772949219</v>
       </c>
       <c r="C89" t="n">
         <v>329.327</v>
@@ -1423,7 +1423,7 @@
         <v>1109</v>
       </c>
       <c r="B90" t="n">
-        <v>331.8857421875</v>
+        <v>333.1891174316406</v>
       </c>
       <c r="C90" t="n">
         <v>326.87</v>
@@ -1434,7 +1434,7 @@
         <v>1109.05</v>
       </c>
       <c r="B91" t="n">
-        <v>333.6171875</v>
+        <v>333.3839416503906</v>
       </c>
       <c r="C91" t="n">
         <v>325.214</v>
@@ -1445,7 +1445,7 @@
         <v>1109.1</v>
       </c>
       <c r="B92" t="n">
-        <v>333.9502258300781</v>
+        <v>336.5399780273438</v>
       </c>
       <c r="C92" t="n">
         <v>325.694</v>
@@ -1456,7 +1456,7 @@
         <v>1109.15</v>
       </c>
       <c r="B93" t="n">
-        <v>336.1173706054688</v>
+        <v>335.8324279785156</v>
       </c>
       <c r="C93" t="n">
         <v>331.357</v>
@@ -1467,7 +1467,7 @@
         <v>1109.2</v>
       </c>
       <c r="B94" t="n">
-        <v>335.4373168945312</v>
+        <v>333.5354919433594</v>
       </c>
       <c r="C94" t="n">
         <v>338.996</v>
@@ -1478,7 +1478,7 @@
         <v>1109.25</v>
       </c>
       <c r="B95" t="n">
-        <v>336.6378173828125</v>
+        <v>334.4427795410156</v>
       </c>
       <c r="C95" t="n">
         <v>341.613</v>
@@ -1489,7 +1489,7 @@
         <v>1109.3</v>
       </c>
       <c r="B96" t="n">
-        <v>336.2733154296875</v>
+        <v>333.4949340820312</v>
       </c>
       <c r="C96" t="n">
         <v>342.682</v>
@@ -1500,7 +1500,7 @@
         <v>1109.35</v>
       </c>
       <c r="B97" t="n">
-        <v>336.3695678710938</v>
+        <v>333.6937255859375</v>
       </c>
       <c r="C97" t="n">
         <v>341.453</v>
@@ -1511,7 +1511,7 @@
         <v>1109.4</v>
       </c>
       <c r="B98" t="n">
-        <v>334.6765441894531</v>
+        <v>331.1928405761719</v>
       </c>
       <c r="C98" t="n">
         <v>335.523</v>
@@ -1522,7 +1522,7 @@
         <v>1109.45</v>
       </c>
       <c r="B99" t="n">
-        <v>334.0524291992188</v>
+        <v>333.0123596191406</v>
       </c>
       <c r="C99" t="n">
         <v>333.6</v>
@@ -1533,7 +1533,7 @@
         <v>1109.5</v>
       </c>
       <c r="B100" t="n">
-        <v>331.6714477539062</v>
+        <v>332.3064880371094</v>
       </c>
       <c r="C100" t="n">
         <v>331.731</v>
@@ -1544,7 +1544,7 @@
         <v>1109.55</v>
       </c>
       <c r="B101" t="n">
-        <v>328.4100341796875</v>
+        <v>334.1004333496094</v>
       </c>
       <c r="C101" t="n">
         <v>331.357</v>
@@ -1555,7 +1555,7 @@
         <v>1109.6</v>
       </c>
       <c r="B102" t="n">
-        <v>325.6697998046875</v>
+        <v>330.4848022460938</v>
       </c>
       <c r="C102" t="n">
         <v>328.632</v>
@@ -1566,7 +1566,7 @@
         <v>1109.65</v>
       </c>
       <c r="B103" t="n">
-        <v>322.4381408691406</v>
+        <v>329.6945190429688</v>
       </c>
       <c r="C103" t="n">
         <v>325.748</v>
@@ -1577,7 +1577,7 @@
         <v>1109.7</v>
       </c>
       <c r="B104" t="n">
-        <v>319.1030578613281</v>
+        <v>329.5988159179688</v>
       </c>
       <c r="C104" t="n">
         <v>319.605</v>
@@ -1588,7 +1588,7 @@
         <v>1109.75</v>
       </c>
       <c r="B105" t="n">
-        <v>317.1916198730469</v>
+        <v>327.9155883789062</v>
       </c>
       <c r="C105" t="n">
         <v>316.346</v>
@@ -1599,7 +1599,7 @@
         <v>1109.8</v>
       </c>
       <c r="B106" t="n">
-        <v>314.1280212402344</v>
+        <v>326.3502807617188</v>
       </c>
       <c r="C106" t="n">
         <v>312.286</v>
@@ -1610,7 +1610,7 @@
         <v>1109.85</v>
       </c>
       <c r="B107" t="n">
-        <v>313.3281555175781</v>
+        <v>323.1498413085938</v>
       </c>
       <c r="C107" t="n">
         <v>311.378</v>
@@ -1621,7 +1621,7 @@
         <v>1109.9</v>
       </c>
       <c r="B108" t="n">
-        <v>312.669189453125</v>
+        <v>321.9714965820312</v>
       </c>
       <c r="C108" t="n">
         <v>311.378</v>
@@ -1632,7 +1632,7 @@
         <v>1109.95</v>
       </c>
       <c r="B109" t="n">
-        <v>314.226806640625</v>
+        <v>318.687744140625</v>
       </c>
       <c r="C109" t="n">
         <v>312.927</v>
@@ -1643,7 +1643,7 @@
         <v>1110</v>
       </c>
       <c r="B110" t="n">
-        <v>316.0540161132812</v>
+        <v>317.3583374023438</v>
       </c>
       <c r="C110" t="n">
         <v>314.209</v>
@@ -1654,7 +1654,7 @@
         <v>1110.05</v>
       </c>
       <c r="B111" t="n">
-        <v>317.9581909179688</v>
+        <v>318.4037475585938</v>
       </c>
       <c r="C111" t="n">
         <v>315.598</v>
@@ -1665,7 +1665,7 @@
         <v>1110.1</v>
       </c>
       <c r="B112" t="n">
-        <v>320.3851623535156</v>
+        <v>318.40380859375</v>
       </c>
       <c r="C112" t="n">
         <v>318.75</v>
@@ -1676,7 +1676,7 @@
         <v>1110.15</v>
       </c>
       <c r="B113" t="n">
-        <v>322.4406433105469</v>
+        <v>319.3903198242188</v>
       </c>
       <c r="C113" t="n">
         <v>319.551</v>
@@ -1687,7 +1687,7 @@
         <v>1110.2</v>
       </c>
       <c r="B114" t="n">
-        <v>324.2019348144531</v>
+        <v>320.6393432617188</v>
       </c>
       <c r="C114" t="n">
         <v>323.13</v>
@@ -1698,7 +1698,7 @@
         <v>1110.25</v>
       </c>
       <c r="B115" t="n">
-        <v>325.484619140625</v>
+        <v>322.0720520019531</v>
       </c>
       <c r="C115" t="n">
         <v>326.656</v>
@@ -1709,7 +1709,7 @@
         <v>1110.3</v>
       </c>
       <c r="B116" t="n">
-        <v>327.4398803710938</v>
+        <v>320.6190795898438</v>
       </c>
       <c r="C116" t="n">
         <v>333.12</v>
@@ -1720,7 +1720,7 @@
         <v>1110.35</v>
       </c>
       <c r="B117" t="n">
-        <v>327.2543334960938</v>
+        <v>319.8252563476562</v>
       </c>
       <c r="C117" t="n">
         <v>333.227</v>
@@ -1731,7 +1731,7 @@
         <v>1110.4</v>
       </c>
       <c r="B118" t="n">
-        <v>328.6210327148438</v>
+        <v>318.6372375488281</v>
       </c>
       <c r="C118" t="n">
         <v>329.647</v>
@@ -1742,7 +1742,7 @@
         <v>1110.45</v>
       </c>
       <c r="B119" t="n">
-        <v>329.7095336914062</v>
+        <v>319.8397827148438</v>
       </c>
       <c r="C119" t="n">
         <v>328.9</v>
@@ -1753,7 +1753,7 @@
         <v>1110.5</v>
       </c>
       <c r="B120" t="n">
-        <v>328.3897094726562</v>
+        <v>320.9222412109375</v>
       </c>
       <c r="C120" t="n">
         <v>329.06</v>
@@ -1764,7 +1764,7 @@
         <v>1110.55</v>
       </c>
       <c r="B121" t="n">
-        <v>326.4463500976562</v>
+        <v>321.3302612304688</v>
       </c>
       <c r="C121" t="n">
         <v>327.404</v>
@@ -1775,7 +1775,7 @@
         <v>1110.6</v>
       </c>
       <c r="B122" t="n">
-        <v>324.8330688476562</v>
+        <v>322.4893188476562</v>
       </c>
       <c r="C122" t="n">
         <v>326.656</v>
@@ -1786,7 +1786,7 @@
         <v>1110.65</v>
       </c>
       <c r="B123" t="n">
-        <v>324.0565490722656</v>
+        <v>323.6189575195312</v>
       </c>
       <c r="C123" t="n">
         <v>324.252</v>
@@ -1797,7 +1797,7 @@
         <v>1110.7</v>
       </c>
       <c r="B124" t="n">
-        <v>323.472412109375</v>
+        <v>324.9710083007812</v>
       </c>
       <c r="C124" t="n">
         <v>321.368</v>
@@ -1808,7 +1808,7 @@
         <v>1110.75</v>
       </c>
       <c r="B125" t="n">
-        <v>323.5836486816406</v>
+        <v>325.2142028808594</v>
       </c>
       <c r="C125" t="n">
         <v>321.421</v>
@@ -1819,7 +1819,7 @@
         <v>1110.8</v>
       </c>
       <c r="B126" t="n">
-        <v>326.8399658203125</v>
+        <v>324.1943969726562</v>
       </c>
       <c r="C126" t="n">
         <v>326.175</v>
@@ -1830,7 +1830,7 @@
         <v>1110.85</v>
       </c>
       <c r="B127" t="n">
-        <v>328.9760131835938</v>
+        <v>326.8699035644531</v>
       </c>
       <c r="C127" t="n">
         <v>330.288</v>
@@ -1841,7 +1841,7 @@
         <v>1110.9</v>
       </c>
       <c r="B128" t="n">
-        <v>329.1343688964844</v>
+        <v>326.7462463378906</v>
       </c>
       <c r="C128" t="n">
         <v>336.378</v>
@@ -1852,7 +1852,7 @@
         <v>1110.95</v>
       </c>
       <c r="B129" t="n">
-        <v>329.9420166015625</v>
+        <v>327.6000061035156</v>
       </c>
       <c r="C129" t="n">
         <v>337.447</v>
@@ -1863,7 +1863,7 @@
         <v>1111</v>
       </c>
       <c r="B130" t="n">
-        <v>330.5735473632812</v>
+        <v>326.8278503417969</v>
       </c>
       <c r="C130" t="n">
         <v>334.455</v>
@@ -1874,7 +1874,7 @@
         <v>1111.05</v>
       </c>
       <c r="B131" t="n">
-        <v>331.32666015625</v>
+        <v>328.5335693359375</v>
       </c>
       <c r="C131" t="n">
         <v>331.57</v>
@@ -1885,7 +1885,7 @@
         <v>1111.1</v>
       </c>
       <c r="B132" t="n">
-        <v>328.6493225097656</v>
+        <v>330.4413452148438</v>
       </c>
       <c r="C132" t="n">
         <v>328.312</v>
@@ -1896,7 +1896,7 @@
         <v>1111.15</v>
       </c>
       <c r="B133" t="n">
-        <v>330.1624145507812</v>
+        <v>332.5214538574219</v>
       </c>
       <c r="C133" t="n">
         <v>327.083</v>
@@ -1907,7 +1907,7 @@
         <v>1111.2</v>
       </c>
       <c r="B134" t="n">
-        <v>327.5624389648438</v>
+        <v>332.5481567382812</v>
       </c>
       <c r="C134" t="n">
         <v>325.748</v>
@@ -1918,7 +1918,7 @@
         <v>1111.25</v>
       </c>
       <c r="B135" t="n">
-        <v>326.1925964355469</v>
+        <v>332.7099914550781</v>
       </c>
       <c r="C135" t="n">
         <v>325.267</v>
@@ -1929,7 +1929,7 @@
         <v>1111.3</v>
       </c>
       <c r="B136" t="n">
-        <v>325.585693359375</v>
+        <v>331.9681701660156</v>
       </c>
       <c r="C136" t="n">
         <v>326.282</v>
@@ -1940,7 +1940,7 @@
         <v>1111.35</v>
       </c>
       <c r="B137" t="n">
-        <v>326.428955078125</v>
+        <v>334.4413757324219</v>
       </c>
       <c r="C137" t="n">
         <v>327.885</v>
@@ -1951,7 +1951,7 @@
         <v>1111.4</v>
       </c>
       <c r="B138" t="n">
-        <v>323.4050903320312</v>
+        <v>334.3637390136719</v>
       </c>
       <c r="C138" t="n">
         <v>327.885</v>
@@ -1962,7 +1962,7 @@
         <v>1111.45</v>
       </c>
       <c r="B139" t="n">
-        <v>324.1454467773438</v>
+        <v>335.5856018066406</v>
       </c>
       <c r="C139" t="n">
         <v>327.511</v>
@@ -1973,7 +1973,7 @@
         <v>1111.5</v>
       </c>
       <c r="B140" t="n">
-        <v>323.2648315429688</v>
+        <v>333.5065307617188</v>
       </c>
       <c r="C140" t="n">
         <v>323.665</v>
@@ -1984,7 +1984,7 @@
         <v>1111.55</v>
       </c>
       <c r="B141" t="n">
-        <v>324.6700134277344</v>
+        <v>334.0632629394531</v>
       </c>
       <c r="C141" t="n">
         <v>321.848</v>
@@ -1995,7 +1995,7 @@
         <v>1111.6</v>
       </c>
       <c r="B142" t="n">
-        <v>325.0911254882812</v>
+        <v>331.5454406738281</v>
       </c>
       <c r="C142" t="n">
         <v>321.474</v>
@@ -2006,7 +2006,7 @@
         <v>1111.65</v>
       </c>
       <c r="B143" t="n">
-        <v>324.8231811523438</v>
+        <v>328.61669921875</v>
       </c>
       <c r="C143" t="n">
         <v>322.222</v>
@@ -2017,7 +2017,7 @@
         <v>1111.7</v>
       </c>
       <c r="B144" t="n">
-        <v>325.0499267578125</v>
+        <v>329.099609375</v>
       </c>
       <c r="C144" t="n">
         <v>325.534</v>
@@ -2028,7 +2028,7 @@
         <v>1111.75</v>
       </c>
       <c r="B145" t="n">
-        <v>325.8128051757812</v>
+        <v>326.3651428222656</v>
       </c>
       <c r="C145" t="n">
         <v>326.87</v>
@@ -2039,7 +2039,7 @@
         <v>1111.8</v>
       </c>
       <c r="B146" t="n">
-        <v>325.6133117675781</v>
+        <v>325.3365478515625</v>
       </c>
       <c r="C146" t="n">
         <v>327.724</v>
@@ -2050,7 +2050,7 @@
         <v>1111.85</v>
       </c>
       <c r="B147" t="n">
-        <v>325.8153991699219</v>
+        <v>325.6983947753906</v>
       </c>
       <c r="C147" t="n">
         <v>327.457</v>
@@ -2061,7 +2061,7 @@
         <v>1111.9</v>
       </c>
       <c r="B148" t="n">
-        <v>324.0251159667969</v>
+        <v>324.4649963378906</v>
       </c>
       <c r="C148" t="n">
         <v>326.549</v>
@@ -2072,7 +2072,7 @@
         <v>1111.95</v>
       </c>
       <c r="B149" t="n">
-        <v>324.3472900390625</v>
+        <v>323.1256103515625</v>
       </c>
       <c r="C149" t="n">
         <v>325.481</v>
@@ -2083,7 +2083,7 @@
         <v>1112</v>
       </c>
       <c r="B150" t="n">
-        <v>323.9256591796875</v>
+        <v>320.3350830078125</v>
       </c>
       <c r="C150" t="n">
         <v>321.902</v>
@@ -2094,7 +2094,7 @@
         <v>1112.05</v>
       </c>
       <c r="B151" t="n">
-        <v>323.5843505859375</v>
+        <v>320.5258483886719</v>
       </c>
       <c r="C151" t="n">
         <v>319.925</v>
@@ -2105,7 +2105,7 @@
         <v>1112.1</v>
       </c>
       <c r="B152" t="n">
-        <v>321.81884765625</v>
+        <v>319.0348510742188</v>
       </c>
       <c r="C152" t="n">
         <v>315.812</v>
@@ -2116,7 +2116,7 @@
         <v>1112.15</v>
       </c>
       <c r="B153" t="n">
-        <v>319.7713623046875</v>
+        <v>315.5262756347656</v>
       </c>
       <c r="C153" t="n">
         <v>316.079</v>
@@ -2127,7 +2127,7 @@
         <v>1112.2</v>
       </c>
       <c r="B154" t="n">
-        <v>319.5093383789062</v>
+        <v>314.440185546875</v>
       </c>
       <c r="C154" t="n">
         <v>317.521</v>
@@ -2138,7 +2138,7 @@
         <v>1112.25</v>
       </c>
       <c r="B155" t="n">
-        <v>316.5409851074219</v>
+        <v>314.2483825683594</v>
       </c>
       <c r="C155" t="n">
         <v>319.338</v>
@@ -2149,7 +2149,7 @@
         <v>1112.3</v>
       </c>
       <c r="B156" t="n">
-        <v>314.9600830078125</v>
+        <v>313.4433288574219</v>
       </c>
       <c r="C156" t="n">
         <v>317.735</v>
@@ -2160,7 +2160,7 @@
         <v>1112.35</v>
       </c>
       <c r="B157" t="n">
-        <v>313.0430908203125</v>
+        <v>312.4140930175781</v>
       </c>
       <c r="C157" t="n">
         <v>309.936</v>
@@ -2171,7 +2171,7 @@
         <v>1112.4</v>
       </c>
       <c r="B158" t="n">
-        <v>313.028076171875</v>
+        <v>312.38720703125</v>
       </c>
       <c r="C158" t="n">
         <v>305.769</v>
@@ -2182,7 +2182,7 @@
         <v>1112.45</v>
       </c>
       <c r="B159" t="n">
-        <v>311.3610534667969</v>
+        <v>312.5114135742188</v>
       </c>
       <c r="C159" t="n">
         <v>305.342</v>
@@ -2193,7 +2193,7 @@
         <v>1112.5</v>
       </c>
       <c r="B160" t="n">
-        <v>310.5845642089844</v>
+        <v>311.5987854003906</v>
       </c>
       <c r="C160" t="n">
         <v>305.609</v>
@@ -2204,7 +2204,7 @@
         <v>1112.55</v>
       </c>
       <c r="B161" t="n">
-        <v>308.9129028320312</v>
+        <v>309.7705688476562</v>
       </c>
       <c r="C161" t="n">
         <v>305.983</v>
@@ -2215,7 +2215,7 @@
         <v>1112.6</v>
       </c>
       <c r="B162" t="n">
-        <v>308.9065246582031</v>
+        <v>309.3713073730469</v>
       </c>
       <c r="C162" t="n">
         <v>308.066</v>
@@ -2226,7 +2226,7 @@
         <v>1112.65</v>
       </c>
       <c r="B163" t="n">
-        <v>307.9874877929688</v>
+        <v>312.889892578125</v>
       </c>
       <c r="C163" t="n">
         <v>308.974</v>
@@ -2237,7 +2237,7 @@
         <v>1112.7</v>
       </c>
       <c r="B164" t="n">
-        <v>308.7689208984375</v>
+        <v>313.4255981445312</v>
       </c>
       <c r="C164" t="n">
         <v>310.844</v>
@@ -2248,7 +2248,7 @@
         <v>1112.75</v>
       </c>
       <c r="B165" t="n">
-        <v>309.1151733398438</v>
+        <v>314.1044921875</v>
       </c>
       <c r="C165" t="n">
         <v>311.912</v>
@@ -2259,7 +2259,7 @@
         <v>1112.8</v>
       </c>
       <c r="B166" t="n">
-        <v>312.2876586914062</v>
+        <v>314.0267333984375</v>
       </c>
       <c r="C166" t="n">
         <v>314.37</v>
@@ -2270,7 +2270,7 @@
         <v>1112.85</v>
       </c>
       <c r="B167" t="n">
-        <v>313.6474609375</v>
+        <v>315.2055053710938</v>
       </c>
       <c r="C167" t="n">
         <v>314.85</v>
@@ -2281,7 +2281,7 @@
         <v>1112.9</v>
       </c>
       <c r="B168" t="n">
-        <v>314.9451599121094</v>
+        <v>316.17724609375</v>
       </c>
       <c r="C168" t="n">
         <v>315.865</v>
@@ -2292,7 +2292,7 @@
         <v>1112.95</v>
       </c>
       <c r="B169" t="n">
-        <v>318.8705444335938</v>
+        <v>318.5969543457031</v>
       </c>
       <c r="C169" t="n">
         <v>319.551</v>
@@ -2303,7 +2303,7 @@
         <v>1113</v>
       </c>
       <c r="B170" t="n">
-        <v>321.8580017089844</v>
+        <v>321.0162048339844</v>
       </c>
       <c r="C170" t="n">
         <v>321.795</v>
@@ -2314,7 +2314,7 @@
         <v>1113.05</v>
       </c>
       <c r="B171" t="n">
-        <v>325.3502197265625</v>
+        <v>320.7886657714844</v>
       </c>
       <c r="C171" t="n">
         <v>326.229</v>
@@ -2325,7 +2325,7 @@
         <v>1113.1</v>
       </c>
       <c r="B172" t="n">
-        <v>329.6236877441406</v>
+        <v>322.1354370117188</v>
       </c>
       <c r="C172" t="n">
         <v>331.036</v>
@@ -2336,7 +2336,7 @@
         <v>1113.15</v>
       </c>
       <c r="B173" t="n">
-        <v>332.1605529785156</v>
+        <v>327.071533203125</v>
       </c>
       <c r="C173" t="n">
         <v>333.227</v>
@@ -2347,7 +2347,7 @@
         <v>1113.2</v>
       </c>
       <c r="B174" t="n">
-        <v>336.3255615234375</v>
+        <v>327.5984497070312</v>
       </c>
       <c r="C174" t="n">
         <v>336.271</v>
@@ -2358,7 +2358,7 @@
         <v>1113.25</v>
       </c>
       <c r="B175" t="n">
-        <v>337.6371154785156</v>
+        <v>332.3440551757812</v>
       </c>
       <c r="C175" t="n">
         <v>336.806</v>
@@ -2369,7 +2369,7 @@
         <v>1113.3</v>
       </c>
       <c r="B176" t="n">
-        <v>339.0746459960938</v>
+        <v>333.89013671875</v>
       </c>
       <c r="C176" t="n">
         <v>335.684</v>
@@ -2380,7 +2380,7 @@
         <v>1113.35</v>
       </c>
       <c r="B177" t="n">
-        <v>339.2937927246094</v>
+        <v>335.4836120605469</v>
       </c>
       <c r="C177" t="n">
         <v>334.348</v>
@@ -2391,7 +2391,7 @@
         <v>1113.4</v>
       </c>
       <c r="B178" t="n">
-        <v>340.0164489746094</v>
+        <v>338.8070068359375</v>
       </c>
       <c r="C178" t="n">
         <v>333.814</v>
@@ -2402,7 +2402,7 @@
         <v>1113.45</v>
       </c>
       <c r="B179" t="n">
-        <v>340.9258728027344</v>
+        <v>337.5711669921875</v>
       </c>
       <c r="C179" t="n">
         <v>335.523</v>
@@ -2413,7 +2413,7 @@
         <v>1113.5</v>
       </c>
       <c r="B180" t="n">
-        <v>339.539794921875</v>
+        <v>338.9874877929688</v>
       </c>
       <c r="C180" t="n">
         <v>340.331</v>
@@ -2424,7 +2424,7 @@
         <v>1113.55</v>
       </c>
       <c r="B181" t="n">
-        <v>337.9733276367188</v>
+        <v>338.9378356933594</v>
       </c>
       <c r="C181" t="n">
         <v>341.934</v>
@@ -2435,7 +2435,7 @@
         <v>1113.6</v>
       </c>
       <c r="B182" t="n">
-        <v>337.2818603515625</v>
+        <v>336.8366088867188</v>
       </c>
       <c r="C182" t="n">
         <v>342.682</v>
@@ -2446,7 +2446,7 @@
         <v>1113.65</v>
       </c>
       <c r="B183" t="n">
-        <v>336.5725708007812</v>
+        <v>340.0669860839844</v>
       </c>
       <c r="C183" t="n">
         <v>342.415</v>
@@ -2457,7 +2457,7 @@
         <v>1113.7</v>
       </c>
       <c r="B184" t="n">
-        <v>335.5682983398438</v>
+        <v>341.8191833496094</v>
       </c>
       <c r="C184" t="n">
         <v>340.972</v>
@@ -2468,7 +2468,7 @@
         <v>1113.75</v>
       </c>
       <c r="B185" t="n">
-        <v>333.5540161132812</v>
+        <v>342.3464660644531</v>
       </c>
       <c r="C185" t="n">
         <v>339.37</v>
@@ -2479,7 +2479,7 @@
         <v>1113.8</v>
       </c>
       <c r="B186" t="n">
-        <v>334.9673767089844</v>
+        <v>343.5173950195312</v>
       </c>
       <c r="C186" t="n">
         <v>338.515</v>
@@ -2490,7 +2490,7 @@
         <v>1113.85</v>
       </c>
       <c r="B187" t="n">
-        <v>333.9632263183594</v>
+        <v>339.6575927734375</v>
       </c>
       <c r="C187" t="n">
         <v>335.951</v>
@@ -2501,7 +2501,7 @@
         <v>1113.9</v>
       </c>
       <c r="B188" t="n">
-        <v>334.8703918457031</v>
+        <v>335.4700012207031</v>
       </c>
       <c r="C188" t="n">
         <v>333.814</v>
@@ -2512,7 +2512,7 @@
         <v>1113.95</v>
       </c>
       <c r="B189" t="n">
-        <v>336.0606994628906</v>
+        <v>334.1601867675781</v>
       </c>
       <c r="C189" t="n">
         <v>332.585</v>
@@ -2523,7 +2523,7 @@
         <v>1114</v>
       </c>
       <c r="B190" t="n">
-        <v>334.6423950195312</v>
+        <v>330.6420593261719</v>
       </c>
       <c r="C190" t="n">
         <v>330.93</v>
@@ -2534,7 +2534,7 @@
         <v>1114.05</v>
       </c>
       <c r="B191" t="n">
-        <v>333.5723876953125</v>
+        <v>329.2288208007812</v>
       </c>
       <c r="C191" t="n">
         <v>330.449</v>
@@ -2545,7 +2545,7 @@
         <v>1114.1</v>
       </c>
       <c r="B192" t="n">
-        <v>330.3184814453125</v>
+        <v>327.5478820800781</v>
       </c>
       <c r="C192" t="n">
         <v>328.632</v>
@@ -2556,7 +2556,7 @@
         <v>1114.15</v>
       </c>
       <c r="B193" t="n">
-        <v>329.6219177246094</v>
+        <v>328.5587463378906</v>
       </c>
       <c r="C193" t="n">
         <v>327.35</v>
@@ -2567,7 +2567,7 @@
         <v>1114.2</v>
       </c>
       <c r="B194" t="n">
-        <v>327.4493713378906</v>
+        <v>327.4326171875</v>
       </c>
       <c r="C194" t="n">
         <v>326.122</v>
@@ -2578,7 +2578,7 @@
         <v>1114.25</v>
       </c>
       <c r="B195" t="n">
-        <v>327.504150390625</v>
+        <v>329.5907287597656</v>
       </c>
       <c r="C195" t="n">
         <v>326.335</v>
@@ -2589,7 +2589,7 @@
         <v>1114.3</v>
       </c>
       <c r="B196" t="n">
-        <v>328.0621948242188</v>
+        <v>328.7909545898438</v>
       </c>
       <c r="C196" t="n">
         <v>325.962</v>
@@ -2600,7 +2600,7 @@
         <v>1114.35</v>
       </c>
       <c r="B197" t="n">
-        <v>327.5286254882812</v>
+        <v>326.8306274414062</v>
       </c>
       <c r="C197" t="n">
         <v>326.068</v>
@@ -2611,7 +2611,7 @@
         <v>1114.4</v>
       </c>
       <c r="B198" t="n">
-        <v>328.6473693847656</v>
+        <v>323.0281982421875</v>
       </c>
       <c r="C198" t="n">
         <v>327.671</v>
@@ -2622,7 +2622,7 @@
         <v>1114.45</v>
       </c>
       <c r="B199" t="n">
-        <v>327.230712890625</v>
+        <v>322.4123229980469</v>
       </c>
       <c r="C199" t="n">
         <v>328.846</v>
@@ -2633,7 +2633,7 @@
         <v>1114.5</v>
       </c>
       <c r="B200" t="n">
-        <v>327.0018615722656</v>
+        <v>319.3463745117188</v>
       </c>
       <c r="C200" t="n">
         <v>328.632</v>
@@ -2644,7 +2644,7 @@
         <v>1114.55</v>
       </c>
       <c r="B201" t="n">
-        <v>326.2014465332031</v>
+        <v>317.3819885253906</v>
       </c>
       <c r="C201" t="n">
         <v>326.122</v>
@@ -2655,7 +2655,7 @@
         <v>1114.6</v>
       </c>
       <c r="B202" t="n">
-        <v>327.8994750976562</v>
+        <v>315.674072265625</v>
       </c>
       <c r="C202" t="n">
         <v>324.947</v>
@@ -2666,7 +2666,7 @@
         <v>1114.65</v>
       </c>
       <c r="B203" t="n">
-        <v>328.07373046875</v>
+        <v>314.5483703613281</v>
       </c>
       <c r="C203" t="n">
         <v>322.276</v>
@@ -2677,7 +2677,7 @@
         <v>1114.7</v>
       </c>
       <c r="B204" t="n">
-        <v>328.274658203125</v>
+        <v>314.8109130859375</v>
       </c>
       <c r="C204" t="n">
         <v>320.887</v>
@@ -2688,7 +2688,7 @@
         <v>1114.75</v>
       </c>
       <c r="B205" t="n">
-        <v>326.097900390625</v>
+        <v>317.9831237792969</v>
       </c>
       <c r="C205" t="n">
         <v>319.284</v>
@@ -2699,7 +2699,7 @@
         <v>1114.8</v>
       </c>
       <c r="B206" t="n">
-        <v>324.0670166015625</v>
+        <v>316.1984558105469</v>
       </c>
       <c r="C206" t="n">
         <v>318.376</v>
@@ -2710,7 +2710,7 @@
         <v>1114.85</v>
       </c>
       <c r="B207" t="n">
-        <v>321.974365234375</v>
+        <v>316.7492370605469</v>
       </c>
       <c r="C207" t="n">
         <v>316.934</v>
@@ -2721,7 +2721,7 @@
         <v>1114.9</v>
       </c>
       <c r="B208" t="n">
-        <v>318.3206481933594</v>
+        <v>316.7041320800781</v>
       </c>
       <c r="C208" t="n">
         <v>313.835</v>
@@ -2732,7 +2732,7 @@
         <v>1114.95</v>
       </c>
       <c r="B209" t="n">
-        <v>316.4306030273438</v>
+        <v>316.9442749023438</v>
       </c>
       <c r="C209" t="n">
         <v>312.66</v>
@@ -2743,7 +2743,7 @@
         <v>1115</v>
       </c>
       <c r="B210" t="n">
-        <v>311.9357604980469</v>
+        <v>317.4962463378906</v>
       </c>
       <c r="C210" t="n">
         <v>310.47</v>
@@ -2754,7 +2754,7 @@
         <v>1115.05</v>
       </c>
       <c r="B211" t="n">
-        <v>311.4429931640625</v>
+        <v>316.8135070800781</v>
       </c>
       <c r="C211" t="n">
         <v>309.776</v>
@@ -2765,7 +2765,7 @@
         <v>1115.1</v>
       </c>
       <c r="B212" t="n">
-        <v>310.7166748046875</v>
+        <v>313.9296264648438</v>
       </c>
       <c r="C212" t="n">
         <v>308.921</v>
@@ -2776,7 +2776,7 @@
         <v>1115.15</v>
       </c>
       <c r="B213" t="n">
-        <v>310.3459777832031</v>
+        <v>315.4573669433594</v>
       </c>
       <c r="C213" t="n">
         <v>308.707</v>
@@ -2787,7 +2787,7 @@
         <v>1115.2</v>
       </c>
       <c r="B214" t="n">
-        <v>311.1686401367188</v>
+        <v>316.23046875</v>
       </c>
       <c r="C214" t="n">
         <v>309.615</v>
@@ -2798,7 +2798,7 @@
         <v>1115.25</v>
       </c>
       <c r="B215" t="n">
-        <v>312.2529296875</v>
+        <v>317.5686645507812</v>
       </c>
       <c r="C215" t="n">
         <v>310.577</v>
@@ -2809,7 +2809,7 @@
         <v>1115.3</v>
       </c>
       <c r="B216" t="n">
-        <v>313.3016967773438</v>
+        <v>315.9144287109375</v>
       </c>
       <c r="C216" t="n">
         <v>313.088</v>
@@ -2820,7 +2820,7 @@
         <v>1115.35</v>
       </c>
       <c r="B217" t="n">
-        <v>314.656982421875</v>
+        <v>318.1625366210938</v>
       </c>
       <c r="C217" t="n">
         <v>315.438</v>
@@ -2831,7 +2831,7 @@
         <v>1115.4</v>
       </c>
       <c r="B218" t="n">
-        <v>315.8627319335938</v>
+        <v>319.9360961914062</v>
       </c>
       <c r="C218" t="n">
         <v>316.079</v>
@@ -2842,7 +2842,7 @@
         <v>1115.45</v>
       </c>
       <c r="B219" t="n">
-        <v>316.73388671875</v>
+        <v>320.8016357421875</v>
       </c>
       <c r="C219" t="n">
         <v>315.598</v>
@@ -2853,7 +2853,7 @@
         <v>1115.5</v>
       </c>
       <c r="B220" t="n">
-        <v>318.45947265625</v>
+        <v>318.8702392578125</v>
       </c>
       <c r="C220" t="n">
         <v>315.118</v>
@@ -2864,7 +2864,7 @@
         <v>1115.55</v>
       </c>
       <c r="B221" t="n">
-        <v>318.8841247558594</v>
+        <v>319.5130004882812</v>
       </c>
       <c r="C221" t="n">
         <v>315.812</v>
@@ -2875,7 +2875,7 @@
         <v>1115.6</v>
       </c>
       <c r="B222" t="n">
-        <v>320.9917602539062</v>
+        <v>320.86181640625</v>
       </c>
       <c r="C222" t="n">
         <v>319.07</v>
@@ -2886,7 +2886,7 @@
         <v>1115.65</v>
       </c>
       <c r="B223" t="n">
-        <v>322.3728637695312</v>
+        <v>319.0545349121094</v>
       </c>
       <c r="C223" t="n">
         <v>321.047</v>
@@ -2897,7 +2897,7 @@
         <v>1115.7</v>
       </c>
       <c r="B224" t="n">
-        <v>323.9791564941406</v>
+        <v>323.1986999511719</v>
       </c>
       <c r="C224" t="n">
         <v>322.97</v>
@@ -2908,7 +2908,7 @@
         <v>1115.75</v>
       </c>
       <c r="B225" t="n">
-        <v>324.5778198242188</v>
+        <v>325.0794372558594</v>
       </c>
       <c r="C225" t="n">
         <v>323.237</v>
@@ -2919,7 +2919,7 @@
         <v>1115.8</v>
       </c>
       <c r="B226" t="n">
-        <v>323.4340515136719</v>
+        <v>325.9273071289062</v>
       </c>
       <c r="C226" t="n">
         <v>323.291</v>
@@ -2930,7 +2930,7 @@
         <v>1115.85</v>
       </c>
       <c r="B227" t="n">
-        <v>324.7583618164062</v>
+        <v>326.3046264648438</v>
       </c>
       <c r="C227" t="n">
         <v>323.451</v>
@@ -2941,7 +2941,7 @@
         <v>1115.9</v>
       </c>
       <c r="B228" t="n">
-        <v>325.719482421875</v>
+        <v>327.0240783691406</v>
       </c>
       <c r="C228" t="n">
         <v>323.985</v>
@@ -2952,7 +2952,7 @@
         <v>1115.95</v>
       </c>
       <c r="B229" t="n">
-        <v>326.8855285644531</v>
+        <v>327.3912963867188</v>
       </c>
       <c r="C229" t="n">
         <v>324.519</v>
@@ -2963,7 +2963,7 @@
         <v>1116</v>
       </c>
       <c r="B230" t="n">
-        <v>327.2578735351562</v>
+        <v>325.9615478515625</v>
       </c>
       <c r="C230" t="n">
         <v>325.801</v>
@@ -2974,7 +2974,7 @@
         <v>1116.05</v>
       </c>
       <c r="B231" t="n">
-        <v>327.6096496582031</v>
+        <v>326.533447265625</v>
       </c>
       <c r="C231" t="n">
         <v>326.282</v>
@@ -2985,7 +2985,7 @@
         <v>1116.1</v>
       </c>
       <c r="B232" t="n">
-        <v>328.2631225585938</v>
+        <v>327.2803039550781</v>
       </c>
       <c r="C232" t="n">
         <v>327.724</v>
@@ -2996,7 +2996,7 @@
         <v>1116.15</v>
       </c>
       <c r="B233" t="n">
-        <v>328.8408813476562</v>
+        <v>324.86669921875</v>
       </c>
       <c r="C233" t="n">
         <v>328.152</v>
@@ -3007,7 +3007,7 @@
         <v>1116.2</v>
       </c>
       <c r="B234" t="n">
-        <v>329.8704833984375</v>
+        <v>325.9122314453125</v>
       </c>
       <c r="C234" t="n">
         <v>327.724</v>
@@ -3018,7 +3018,7 @@
         <v>1116.25</v>
       </c>
       <c r="B235" t="n">
-        <v>328.5252075195312</v>
+        <v>325.4072875976562</v>
       </c>
       <c r="C235" t="n">
         <v>325.855</v>
@@ -3029,7 +3029,7 @@
         <v>1116.3</v>
       </c>
       <c r="B236" t="n">
-        <v>326.5824584960938</v>
+        <v>323.9195556640625</v>
       </c>
       <c r="C236" t="n">
         <v>324.412</v>
@@ -3040,7 +3040,7 @@
         <v>1116.35</v>
       </c>
       <c r="B237" t="n">
-        <v>324.4905395507812</v>
+        <v>324.7449340820312</v>
       </c>
       <c r="C237" t="n">
         <v>324.252</v>
@@ -3051,7 +3051,7 @@
         <v>1116.4</v>
       </c>
       <c r="B238" t="n">
-        <v>321.7573852539062</v>
+        <v>326.294677734375</v>
       </c>
       <c r="C238" t="n">
         <v>323.932</v>
@@ -3062,7 +3062,7 @@
         <v>1116.45</v>
       </c>
       <c r="B239" t="n">
-        <v>319.038330078125</v>
+        <v>325.83984375</v>
       </c>
       <c r="C239" t="n">
         <v>323.558</v>
@@ -3073,7 +3073,7 @@
         <v>1116.5</v>
       </c>
       <c r="B240" t="n">
-        <v>316.0984802246094</v>
+        <v>324.6328735351562</v>
       </c>
       <c r="C240" t="n">
         <v>320.78</v>
@@ -3084,7 +3084,7 @@
         <v>1116.55</v>
       </c>
       <c r="B241" t="n">
-        <v>314.06494140625</v>
+        <v>325.3436279296875</v>
       </c>
       <c r="C241" t="n">
         <v>319.071</v>
@@ -3095,7 +3095,7 @@
         <v>1116.6</v>
       </c>
       <c r="B242" t="n">
-        <v>311.3246765136719</v>
+        <v>326.6275939941406</v>
       </c>
       <c r="C242" t="n">
         <v>315.171</v>
@@ -3106,7 +3106,7 @@
         <v>1116.65</v>
       </c>
       <c r="B243" t="n">
-        <v>311.1246337890625</v>
+        <v>326.2116394042969</v>
       </c>
       <c r="C243" t="n">
         <v>313.568</v>
@@ -3117,7 +3117,7 @@
         <v>1116.7</v>
       </c>
       <c r="B244" t="n">
-        <v>310.5486145019531</v>
+        <v>325.1802368164062</v>
       </c>
       <c r="C244" t="n">
         <v>311.592</v>
@@ -3128,7 +3128,7 @@
         <v>1116.75</v>
       </c>
       <c r="B245" t="n">
-        <v>308.2667236328125</v>
+        <v>322.6410827636719</v>
       </c>
       <c r="C245" t="n">
         <v>310.577</v>
@@ -3139,7 +3139,7 @@
         <v>1116.8</v>
       </c>
       <c r="B246" t="n">
-        <v>308.6527709960938</v>
+        <v>321.4044189453125</v>
       </c>
       <c r="C246" t="n">
         <v>310.203</v>
@@ -3150,7 +3150,7 @@
         <v>1116.85</v>
       </c>
       <c r="B247" t="n">
-        <v>307.8567199707031</v>
+        <v>320.64990234375</v>
       </c>
       <c r="C247" t="n">
         <v>310.63</v>
@@ -3161,7 +3161,7 @@
         <v>1116.9</v>
       </c>
       <c r="B248" t="n">
-        <v>310.1823120117188</v>
+        <v>317.0831909179688</v>
       </c>
       <c r="C248" t="n">
         <v>310.844</v>
@@ -3172,7 +3172,7 @@
         <v>1116.95</v>
       </c>
       <c r="B249" t="n">
-        <v>311.0418701171875</v>
+        <v>317.9197998046875</v>
       </c>
       <c r="C249" t="n">
         <v>311.592</v>
@@ -3183,7 +3183,7 @@
         <v>1117</v>
       </c>
       <c r="B250" t="n">
-        <v>313.146728515625</v>
+        <v>316.6915893554688</v>
       </c>
       <c r="C250" t="n">
         <v>312.447</v>
@@ -3194,7 +3194,7 @@
         <v>1117.05</v>
       </c>
       <c r="B251" t="n">
-        <v>314.1290283203125</v>
+        <v>313.7918090820312</v>
       </c>
       <c r="C251" t="n">
         <v>313.301</v>
@@ -3205,7 +3205,7 @@
         <v>1117.1</v>
       </c>
       <c r="B252" t="n">
-        <v>316.9157104492188</v>
+        <v>315.3279113769531</v>
       </c>
       <c r="C252" t="n">
         <v>314.744</v>
@@ -3216,7 +3216,7 @@
         <v>1117.15</v>
       </c>
       <c r="B253" t="n">
-        <v>318.6780090332031</v>
+        <v>314.5645751953125</v>
       </c>
       <c r="C253" t="n">
         <v>315.972</v>
@@ -3227,7 +3227,7 @@
         <v>1117.2</v>
       </c>
       <c r="B254" t="n">
-        <v>320.7691345214844</v>
+        <v>316.5851135253906</v>
       </c>
       <c r="C254" t="n">
         <v>318.964</v>
@@ -3238,7 +3238,7 @@
         <v>1117.25</v>
       </c>
       <c r="B255" t="n">
-        <v>322.9257202148438</v>
+        <v>317.5382080078125</v>
       </c>
       <c r="C255" t="n">
         <v>320.673</v>
@@ -3249,7 +3249,7 @@
         <v>1117.3</v>
       </c>
       <c r="B256" t="n">
-        <v>324.9342041015625</v>
+        <v>317.2511901855469</v>
       </c>
       <c r="C256" t="n">
         <v>323.558</v>
@@ -3260,7 +3260,7 @@
         <v>1117.35</v>
       </c>
       <c r="B257" t="n">
-        <v>326.0542297363281</v>
+        <v>317.36328125</v>
       </c>
       <c r="C257" t="n">
         <v>324.733</v>
@@ -3271,7 +3271,7 @@
         <v>1117.4</v>
       </c>
       <c r="B258" t="n">
-        <v>325.941650390625</v>
+        <v>319.760498046875</v>
       </c>
       <c r="C258" t="n">
         <v>326.282</v>
@@ -3282,7 +3282,7 @@
         <v>1117.45</v>
       </c>
       <c r="B259" t="n">
-        <v>326.0916137695312</v>
+        <v>320.3099365234375</v>
       </c>
       <c r="C259" t="n">
         <v>327.137</v>
@@ -3293,7 +3293,7 @@
         <v>1117.5</v>
       </c>
       <c r="B260" t="n">
-        <v>325.6085815429688</v>
+        <v>320.4790649414062</v>
       </c>
       <c r="C260" t="n">
         <v>326.549</v>
@@ -3304,7 +3304,7 @@
         <v>1117.55</v>
       </c>
       <c r="B261" t="n">
-        <v>325.6582336425781</v>
+        <v>322.0409545898438</v>
       </c>
       <c r="C261" t="n">
         <v>325.855</v>
@@ -3315,7 +3315,7 @@
         <v>1117.6</v>
       </c>
       <c r="B262" t="n">
-        <v>326.1546630859375</v>
+        <v>322.4403991699219</v>
       </c>
       <c r="C262" t="n">
         <v>326.709</v>
@@ -3326,7 +3326,7 @@
         <v>1117.65</v>
       </c>
       <c r="B263" t="n">
-        <v>327.984619140625</v>
+        <v>326.917724609375</v>
       </c>
       <c r="C263" t="n">
         <v>327.991</v>
@@ -3337,7 +3337,7 @@
         <v>1117.7</v>
       </c>
       <c r="B264" t="n">
-        <v>328.3743286132812</v>
+        <v>327.2843017578125</v>
       </c>
       <c r="C264" t="n">
         <v>331.677</v>
@@ -3348,7 +3348,7 @@
         <v>1117.75</v>
       </c>
       <c r="B265" t="n">
-        <v>328.8651428222656</v>
+        <v>328.3504638671875</v>
       </c>
       <c r="C265" t="n">
         <v>332.959</v>
@@ -3359,7 +3359,7 @@
         <v>1117.8</v>
       </c>
       <c r="B266" t="n">
-        <v>329.4404907226562</v>
+        <v>328.9326171875</v>
       </c>
       <c r="C266" t="n">
         <v>333.494</v>
@@ -3370,7 +3370,7 @@
         <v>1117.85</v>
       </c>
       <c r="B267" t="n">
-        <v>328.8789978027344</v>
+        <v>329.8772583007812</v>
       </c>
       <c r="C267" t="n">
         <v>330.983</v>
@@ -3381,7 +3381,7 @@
         <v>1117.9</v>
       </c>
       <c r="B268" t="n">
-        <v>327.9279174804688</v>
+        <v>330.2408447265625</v>
       </c>
       <c r="C268" t="n">
         <v>329.487</v>
@@ -3392,7 +3392,7 @@
         <v>1117.95</v>
       </c>
       <c r="B269" t="n">
-        <v>328.2711791992188</v>
+        <v>330.8202514648438</v>
       </c>
       <c r="C269" t="n">
         <v>328.419</v>
@@ -3403,7 +3403,7 @@
         <v>1118</v>
       </c>
       <c r="B270" t="n">
-        <v>325.2715454101562</v>
+        <v>332.3816528320312</v>
       </c>
       <c r="C270" t="n">
         <v>327.724</v>
@@ -3414,7 +3414,7 @@
         <v>1118.05</v>
       </c>
       <c r="B271" t="n">
-        <v>324.8424682617188</v>
+        <v>333.7462768554688</v>
       </c>
       <c r="C271" t="n">
         <v>327.137</v>
@@ -3425,7 +3425,7 @@
         <v>1118.1</v>
       </c>
       <c r="B272" t="n">
-        <v>323.673828125</v>
+        <v>333.65966796875</v>
       </c>
       <c r="C272" t="n">
         <v>326.923</v>
@@ -3436,7 +3436,7 @@
         <v>1118.15</v>
       </c>
       <c r="B273" t="n">
-        <v>322.3969421386719</v>
+        <v>334.4686889648438</v>
       </c>
       <c r="C273" t="n">
         <v>327.618</v>
@@ -3447,7 +3447,7 @@
         <v>1118.2</v>
       </c>
       <c r="B274" t="n">
-        <v>323.6099243164062</v>
+        <v>334.4774780273438</v>
       </c>
       <c r="C274" t="n">
         <v>329.487</v>
@@ -3458,7 +3458,7 @@
         <v>1118.25</v>
       </c>
       <c r="B275" t="n">
-        <v>324.5989379882812</v>
+        <v>335.5338745117188</v>
       </c>
       <c r="C275" t="n">
         <v>329.701</v>
@@ -3469,7 +3469,7 @@
         <v>1118.3</v>
       </c>
       <c r="B276" t="n">
-        <v>325.1090087890625</v>
+        <v>336.3633422851562</v>
       </c>
       <c r="C276" t="n">
         <v>327.671</v>
@@ -3480,7 +3480,7 @@
         <v>1118.35</v>
       </c>
       <c r="B277" t="n">
-        <v>326.5216064453125</v>
+        <v>336.6217346191406</v>
       </c>
       <c r="C277" t="n">
         <v>326.335</v>
@@ -3491,7 +3491,7 @@
         <v>1118.4</v>
       </c>
       <c r="B278" t="n">
-        <v>327.7230224609375</v>
+        <v>336.87548828125</v>
       </c>
       <c r="C278" t="n">
         <v>324.199</v>
@@ -3502,7 +3502,7 @@
         <v>1118.45</v>
       </c>
       <c r="B279" t="n">
-        <v>328.904296875</v>
+        <v>335.1573791503906</v>
       </c>
       <c r="C279" t="n">
         <v>324.306</v>
@@ -3513,7 +3513,7 @@
         <v>1118.5</v>
       </c>
       <c r="B280" t="n">
-        <v>328.9151306152344</v>
+        <v>332.9950561523438</v>
       </c>
       <c r="C280" t="n">
         <v>325.855</v>
@@ -3524,7 +3524,7 @@
         <v>1118.55</v>
       </c>
       <c r="B281" t="n">
-        <v>328.227783203125</v>
+        <v>332.173095703125</v>
       </c>
       <c r="C281" t="n">
         <v>327.457</v>
@@ -3535,7 +3535,7 @@
         <v>1118.6</v>
       </c>
       <c r="B282" t="n">
-        <v>327.1039123535156</v>
+        <v>331.1556396484375</v>
       </c>
       <c r="C282" t="n">
         <v>331.197</v>
@@ -3546,7 +3546,7 @@
         <v>1118.65</v>
       </c>
       <c r="B283" t="n">
-        <v>327.293701171875</v>
+        <v>329.6204833984375</v>
       </c>
       <c r="C283" t="n">
         <v>332.746</v>
@@ -3557,7 +3557,7 @@
         <v>1118.7</v>
       </c>
       <c r="B284" t="n">
-        <v>329.9026184082031</v>
+        <v>328.6577758789062</v>
       </c>
       <c r="C284" t="n">
         <v>333.44</v>
@@ -3568,7 +3568,7 @@
         <v>1118.75</v>
       </c>
       <c r="B285" t="n">
-        <v>330.0910949707031</v>
+        <v>328.6149597167969</v>
       </c>
       <c r="C285" t="n">
         <v>334.776</v>
@@ -3579,7 +3579,7 @@
         <v>1118.8</v>
       </c>
       <c r="B286" t="n">
-        <v>331.4244995117188</v>
+        <v>326.1165161132812</v>
       </c>
       <c r="C286" t="n">
         <v>333.974</v>
@@ -3590,7 +3590,7 @@
         <v>1118.85</v>
       </c>
       <c r="B287" t="n">
-        <v>332.1166687011719</v>
+        <v>327.9487915039062</v>
       </c>
       <c r="C287" t="n">
         <v>333.227</v>
@@ -3601,7 +3601,7 @@
         <v>1118.9</v>
       </c>
       <c r="B288" t="n">
-        <v>332.3603515625</v>
+        <v>324.9970703125</v>
       </c>
       <c r="C288" t="n">
         <v>330.342</v>
@@ -3612,7 +3612,7 @@
         <v>1118.95</v>
       </c>
       <c r="B289" t="n">
-        <v>331.7769165039062</v>
+        <v>324.8754577636719</v>
       </c>
       <c r="C289" t="n">
         <v>328.579</v>
@@ -3623,7 +3623,7 @@
         <v>1119</v>
       </c>
       <c r="B290" t="n">
-        <v>330.5478210449219</v>
+        <v>323.0015869140625</v>
       </c>
       <c r="C290" t="n">
         <v>325.694</v>
@@ -3634,7 +3634,7 @@
         <v>1119.05</v>
       </c>
       <c r="B291" t="n">
-        <v>329.5973510742188</v>
+        <v>323.2277221679688</v>
       </c>
       <c r="C291" t="n">
         <v>325.16</v>
@@ -3645,7 +3645,7 @@
         <v>1119.1</v>
       </c>
       <c r="B292" t="n">
-        <v>328.5785217285156</v>
+        <v>322.6839294433594</v>
       </c>
       <c r="C292" t="n">
         <v>327.564</v>
@@ -3656,7 +3656,7 @@
         <v>1119.15</v>
       </c>
       <c r="B293" t="n">
-        <v>328.5697937011719</v>
+        <v>321.9888916015625</v>
       </c>
       <c r="C293" t="n">
         <v>328.686</v>
@@ -3667,7 +3667,7 @@
         <v>1119.2</v>
       </c>
       <c r="B294" t="n">
-        <v>327.5232543945312</v>
+        <v>320.5252685546875</v>
       </c>
       <c r="C294" t="n">
         <v>328.045</v>
@@ -3678,7 +3678,7 @@
         <v>1119.25</v>
       </c>
       <c r="B295" t="n">
-        <v>324.5725708007812</v>
+        <v>319.4864807128906</v>
       </c>
       <c r="C295" t="n">
         <v>326.977</v>
@@ -3689,7 +3689,7 @@
         <v>1119.3</v>
       </c>
       <c r="B296" t="n">
-        <v>324.3063354492188</v>
+        <v>321.9505310058594</v>
       </c>
       <c r="C296" t="n">
         <v>323.558</v>
@@ -3700,7 +3700,7 @@
         <v>1119.35</v>
       </c>
       <c r="B297" t="n">
-        <v>323.5952758789062</v>
+        <v>321.7082824707031</v>
       </c>
       <c r="C297" t="n">
         <v>322.543</v>
@@ -3711,7 +3711,7 @@
         <v>1119.4</v>
       </c>
       <c r="B298" t="n">
-        <v>321.3543090820312</v>
+        <v>320.7593383789062</v>
       </c>
       <c r="C298" t="n">
         <v>322.222</v>
@@ -3722,7 +3722,7 @@
         <v>1119.45</v>
       </c>
       <c r="B299" t="n">
-        <v>322.3670349121094</v>
+        <v>319.3423156738281</v>
       </c>
       <c r="C299" t="n">
         <v>324.252</v>
@@ -3733,7 +3733,7 @@
         <v>1119.5</v>
       </c>
       <c r="B300" t="n">
-        <v>320.1342468261719</v>
+        <v>321.0387268066406</v>
       </c>
       <c r="C300" t="n">
         <v>325.267</v>
@@ -3744,7 +3744,7 @@
         <v>1119.55</v>
       </c>
       <c r="B301" t="n">
-        <v>321.9013977050781</v>
+        <v>322.1497497558594</v>
       </c>
       <c r="C301" t="n">
         <v>325.481</v>
